--- a/factory_process_KC12 KC12_filled.xlsx
+++ b/factory_process_KC12 KC12_filled.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VALENTIN\Desktop\Challenge_big_data\Challenge_big_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BCFE0C-C2CD-4819-AB94-AAAD095AA227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4937B2CE-860F-41DD-A3FC-DBBFF673EC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$810</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87205,6 +87208,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI810" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>